--- a/10-vue单词表/vue单词表.xlsx
+++ b/10-vue单词表/vue单词表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>表格 1</t>
   </si>
@@ -185,6 +185,9 @@
     <t xml:space="preserve">绑定 </t>
   </si>
   <si>
+    <t>自定义指令钩子函数</t>
+  </si>
+  <si>
     <t>inserted</t>
   </si>
   <si>
@@ -209,13 +212,34 @@
     <t>解绑</t>
   </si>
   <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指令所绑定的元素，可以用来直接操作 DOM </t>
+  </si>
+  <si>
+    <t>vnode</t>
+  </si>
+  <si>
+    <t>Vue 编译生成的虚拟节点</t>
+  </si>
+  <si>
+    <t>oldVnode</t>
+  </si>
+  <si>
+    <t>上一个虚拟节点</t>
+  </si>
+  <si>
     <t>modifiers</t>
   </si>
   <si>
     <t>/'mɒdɪfaɪ/</t>
   </si>
   <si>
-    <t>修改</t>
+    <t>一个包含修饰符的对象</t>
+  </si>
+  <si>
+    <t>binding</t>
   </si>
   <si>
     <t>expression</t>
@@ -224,7 +248,13 @@
     <t>/ɪk'spreʃ(ə)n/</t>
   </si>
   <si>
-    <t>表达</t>
+    <t>字符串形式的指令表达式</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>资料组</t>
   </si>
   <si>
     <t>directive</t>
@@ -288,6 +318,180 @@
   </si>
   <si>
     <t>混入</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>/slɒt/</t>
+  </si>
+  <si>
+    <t>插槽</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>/træn'zɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>过渡</t>
+  </si>
+  <si>
+    <t>v-enter</t>
+  </si>
+  <si>
+    <t>定义进入过渡的开始状态</t>
+  </si>
+  <si>
+    <t>v-enter-to替代了这个</t>
+  </si>
+  <si>
+    <t>过渡的类名</t>
+  </si>
+  <si>
+    <t>v-enter-active</t>
+  </si>
+  <si>
+    <t>定义进入过渡生效时的状态</t>
+  </si>
+  <si>
+    <t>v-enter-to</t>
+  </si>
+  <si>
+    <t>2.1.8版及以上 定义进入过渡的结束状态</t>
+  </si>
+  <si>
+    <t>v-leave</t>
+  </si>
+  <si>
+    <t>定义离开过渡的开始状态。</t>
+  </si>
+  <si>
+    <t>v-leave-to替代了这个</t>
+  </si>
+  <si>
+    <t>v-leave-active</t>
+  </si>
+  <si>
+    <t>定义离开过渡生效时的状态</t>
+  </si>
+  <si>
+    <t>v-leave-to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1.8版及以上 定义离开过渡的结束状态</t>
+  </si>
+  <si>
+    <t>animationend</t>
+  </si>
+  <si>
+    <t>事件名</t>
+  </si>
+  <si>
+    <t>transitionend</t>
+  </si>
+  <si>
+    <t>before-enter</t>
+  </si>
+  <si>
+    <t>过渡动画钩子</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>after-enter</t>
+  </si>
+  <si>
+    <t>enter-cancelled</t>
+  </si>
+  <si>
+    <t>before-leave</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>after-leave</t>
+  </si>
+  <si>
+    <t>leave-cancelled</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>初始渲染的过渡</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>扩展</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>重定向</t>
+  </si>
+  <si>
+    <t>/'eɪlɪəs/</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>beforeEach</t>
+  </si>
+  <si>
+    <t>前置守卫</t>
+  </si>
+  <si>
+    <t>beforeResolve</t>
+  </si>
+  <si>
+    <t>全局守卫</t>
+  </si>
+  <si>
+    <t>beforeEnter</t>
+  </si>
+  <si>
+    <t>路由独享的守卫</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>prɒmɪs/</t>
+  </si>
+  <si>
+    <t>承诺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vuex</t>
+  </si>
+  <si>
+    <t>状态管理</t>
+  </si>
+  <si>
+    <t>Nuxt</t>
+  </si>
+  <si>
+    <t>服务端渲染框架</t>
+  </si>
+  <si>
+    <t>Ssr</t>
+  </si>
+  <si>
+    <t>Server-Side Rendering</t>
+  </si>
+  <si>
+    <t>服务端渲染</t>
+  </si>
+  <si>
+    <t>这个跟vps的那个ssr不同那个是shadowsocks-R</t>
   </si>
 </sst>
 </file>
@@ -465,7 +669,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -510,6 +714,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,7 +1804,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1976,18 +2186,20 @@
       <c r="C29" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" t="s" s="10">
+        <v>57</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1996,11 +2208,11 @@
     </row>
     <row r="31" ht="22.35" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2009,11 +2221,11 @@
     </row>
     <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2022,24 +2234,22 @@
     </row>
     <row r="33" ht="22.35" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="24.35" customHeight="1">
+    <row r="34" ht="50.35" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s" s="14">
         <v>66</v>
       </c>
+      <c r="B34" s="9"/>
       <c r="C34" t="s" s="10">
         <v>67</v>
       </c>
@@ -2048,75 +2258,67 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="24.35" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s" s="10">
-        <v>70</v>
-      </c>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="24.35" customHeight="1">
+    <row r="36" ht="36.6" customHeight="1">
       <c r="A36" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s" s="12">
-        <v>72</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" t="s" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="32.05" customHeight="1">
+    <row r="37" ht="22.35" customHeight="1">
       <c r="A37" t="s" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s" s="10">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="24.35" customHeight="1">
+    <row r="38" ht="36.35" customHeight="1">
       <c r="A38" t="s" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s" s="14">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="D38" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="D38" t="s" s="10">
+        <v>75</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="24.35" customHeight="1">
+    <row r="39" ht="36.35" customHeight="1">
       <c r="A39" t="s" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s" s="12">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -2125,13 +2327,11 @@
     </row>
     <row r="40" ht="24.35" customHeight="1">
       <c r="A40" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s" s="12">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B40" s="13"/>
       <c r="C40" t="s" s="10">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -2140,37 +2340,506 @@
     </row>
     <row r="41" ht="24.35" customHeight="1">
       <c r="A41" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s" s="14">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="B41" t="s" s="12">
+        <v>82</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="24.35" customHeight="1">
+    <row r="42" ht="32.05" customHeight="1">
       <c r="A42" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s" s="14">
-        <v>90</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B42" s="9"/>
       <c r="C42" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="D42" t="s" s="10">
+        <v>86</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
+    <row r="43" ht="24.35" customHeight="1">
+      <c r="A43" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="24.35" customHeight="1">
+      <c r="A44" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" ht="24.35" customHeight="1">
+      <c r="A45" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" ht="24.35" customHeight="1">
+      <c r="A46" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s" s="14">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" ht="24.35" customHeight="1">
+      <c r="A47" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" ht="24.35" customHeight="1">
+      <c r="A48" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" ht="24.35" customHeight="1">
+      <c r="A49" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" ht="36.6" customHeight="1">
+      <c r="A50" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" ht="36.35" customHeight="1">
+      <c r="A51" t="s" s="8">
+        <v>112</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" ht="50.6" customHeight="1">
+      <c r="A52" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" ht="36.6" customHeight="1">
+      <c r="A53" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="E53" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" ht="36.35" customHeight="1">
+      <c r="A54" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" ht="50.6" customHeight="1">
+      <c r="A55" t="s" s="8">
+        <v>121</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" ht="24.35" customHeight="1">
+      <c r="A56" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" ht="24.35" customHeight="1">
+      <c r="A57" t="s" s="8">
+        <v>125</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" ht="24.35" customHeight="1">
+      <c r="A58" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" ht="24.35" customHeight="1">
+      <c r="A59" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" ht="24.35" customHeight="1">
+      <c r="A60" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" ht="24.35" customHeight="1">
+      <c r="A61" t="s" s="8">
+        <v>130</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" ht="24.35" customHeight="1">
+      <c r="A62" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" ht="24.35" customHeight="1">
+      <c r="A63" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" ht="24.35" customHeight="1">
+      <c r="A64" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" ht="24.35" customHeight="1">
+      <c r="A65" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" ht="24.35" customHeight="1">
+      <c r="A66" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" ht="24.35" customHeight="1">
+      <c r="A67" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" ht="24.35" customHeight="1">
+      <c r="A68" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" ht="24.35" customHeight="1">
+      <c r="A69" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" ht="24.35" customHeight="1">
+      <c r="A70" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" ht="24.35" customHeight="1">
+      <c r="A71" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" ht="24.35" customHeight="1">
+      <c r="A72" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" t="s" s="10">
+        <v>148</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" ht="24.35" customHeight="1">
+      <c r="A73" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" ht="24.35" customHeight="1">
+      <c r="A74" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" ht="24.35" customHeight="1">
+      <c r="A75" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" ht="48.35" customHeight="1">
+      <c r="A76" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s" s="16">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
